--- a/XYZ.xlsx
+++ b/XYZ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\BLH-XYZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{AFE01229-A776-407D-BAAF-B1B7BDD54384}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F5BE73E4-A9FC-4C14-8D6C-288CD3B48CA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="3">
   <si>
     <t>-2621475.3950</t>
   </si>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -404,7 +404,7 @@
     <col min="3" max="3" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,8 +414,17 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -425,8 +434,17 @@
       <c r="C2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -436,8 +454,17 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -447,8 +474,17 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -458,8 +494,17 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -469,8 +514,17 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -480,8 +534,17 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -491,8 +554,17 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -502,8 +574,17 @@
       <c r="C9" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>0</v>
       </c>
@@ -513,8 +594,17 @@
       <c r="C10" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>0</v>
       </c>
@@ -524,8 +614,17 @@
       <c r="C11" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11" t="s">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>0</v>
       </c>
@@ -535,8 +634,17 @@
       <c r="C12" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12" t="s">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>0</v>
       </c>
@@ -546,8 +654,17 @@
       <c r="C13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -557,8 +674,17 @@
       <c r="C14" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>0</v>
       </c>
@@ -568,8 +694,17 @@
       <c r="C15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -579,8 +714,17 @@
       <c r="C16" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -590,8 +734,17 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>0</v>
       </c>
@@ -601,8 +754,17 @@
       <c r="C18" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -612,8 +774,17 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>0</v>
       </c>
@@ -623,8 +794,17 @@
       <c r="C20" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>0</v>
       </c>
@@ -634,8 +814,17 @@
       <c r="C21" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>0</v>
       </c>
@@ -645,8 +834,17 @@
       <c r="C22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -656,8 +854,17 @@
       <c r="C23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
@@ -667,8 +874,17 @@
       <c r="C24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>0</v>
       </c>
@@ -678,8 +894,17 @@
       <c r="C25" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
@@ -689,8 +914,17 @@
       <c r="C26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>0</v>
       </c>
@@ -700,8 +934,17 @@
       <c r="C27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>0</v>
       </c>
@@ -711,8 +954,17 @@
       <c r="C28" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>0</v>
       </c>
@@ -722,8 +974,17 @@
       <c r="C29" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -731,6 +992,15 @@
         <v>1</v>
       </c>
       <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
         <v>2</v>
       </c>
     </row>

--- a/XYZ.xlsx
+++ b/XYZ.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asus\Desktop\BLH-XYZ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F5BE73E4-A9FC-4C14-8D6C-288CD3B48CA9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{C3F200B3-1F49-4F66-B0AA-A4684D0F5A5A}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11955" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,138 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="3">
-  <si>
-    <t>-2621475.3950</t>
-  </si>
-  <si>
-    <t>5236141.7513</t>
-  </si>
-  <si>
-    <t>2519690.9545</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="44">
+  <si>
+    <t>-2621530.5343</t>
+  </si>
+  <si>
+    <t>5236251.8868</t>
+  </si>
+  <si>
+    <t>2519679.4007</t>
+  </si>
+  <si>
+    <t>-2621550.4483</t>
+  </si>
+  <si>
+    <t>5236228.2410</t>
+  </si>
+  <si>
+    <t>2519707.6304</t>
+  </si>
+  <si>
+    <t>-2621569.7705</t>
+  </si>
+  <si>
+    <t>5236204.8913</t>
+  </si>
+  <si>
+    <t>2519735.8600</t>
+  </si>
+  <si>
+    <t>-2621605.8424</t>
+  </si>
+  <si>
+    <t>5236214.2227</t>
+  </si>
+  <si>
+    <t>2519679.3189</t>
+  </si>
+  <si>
+    <t>-2621624.0552</t>
+  </si>
+  <si>
+    <t>5236191.4283</t>
+  </si>
+  <si>
+    <t>2519707.5485</t>
+  </si>
+  <si>
+    <t>-2621638.6199</t>
+  </si>
+  <si>
+    <t>5236170.4601</t>
+  </si>
+  <si>
+    <t>2519735.7782</t>
+  </si>
+  <si>
+    <t>-2621682.9816</t>
+  </si>
+  <si>
+    <t>5236177.3432</t>
+  </si>
+  <si>
+    <t>2519675.7224</t>
+  </si>
+  <si>
+    <t>-2621499.8057</t>
+  </si>
+  <si>
+    <t>5236255.3772</t>
+  </si>
+  <si>
+    <t>2519703.9521</t>
+  </si>
+  <si>
+    <t>-2621525.3833</t>
+  </si>
+  <si>
+    <t>5236228.8960</t>
+  </si>
+  <si>
+    <t>2519732.1817</t>
+  </si>
+  <si>
+    <t>-2621563.4467</t>
+  </si>
+  <si>
+    <t>5236238.1852</t>
+  </si>
+  <si>
+    <t>2519673.6701</t>
+  </si>
+  <si>
+    <t>-2621580.5757</t>
+  </si>
+  <si>
+    <t>5236215.9336</t>
+  </si>
+  <si>
+    <t>2519701.8998</t>
+  </si>
+  <si>
+    <t>-2621604.8532</t>
+  </si>
+  <si>
+    <t>5236190.1028</t>
+  </si>
+  <si>
+    <t>2519730.1294</t>
+  </si>
+  <si>
+    <t>-2621635.5559</t>
+  </si>
+  <si>
+    <t>5236199.3064</t>
+  </si>
+  <si>
+    <t>-2621652.1642</t>
+  </si>
+  <si>
+    <t>5236177.3151</t>
+  </si>
+  <si>
+    <t>-2621671.3717</t>
+  </si>
+  <si>
+    <t>5236154.0221</t>
+  </si>
+  <si>
+    <t>-2621534.5904</t>
+  </si>
+  <si>
+    <t>5236252.6322</t>
   </si>
 </sst>
 </file>
@@ -391,20 +514,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F30"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="18.75" customWidth="1"/>
-    <col min="3" max="3" width="23.75" customWidth="1"/>
+    <col min="1" max="1" width="24.625" customWidth="1"/>
+    <col min="2" max="2" width="31.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -414,317 +536,173 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" t="s">
-        <v>0</v>
-      </c>
-      <c r="E6" t="s">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>0</v>
-      </c>
-      <c r="E8" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>0</v>
-      </c>
-      <c r="E10" t="s">
-        <v>1</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B11" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" t="s">
-        <v>0</v>
-      </c>
-      <c r="E11" t="s">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>0</v>
-      </c>
-      <c r="E12" t="s">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
-      </c>
-      <c r="D14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>1</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D15" t="s">
-        <v>0</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>1</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D16" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" t="s">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>0</v>
       </c>
@@ -734,274 +712,346 @@
       <c r="C17" t="s">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>1</v>
-      </c>
-      <c r="F19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D20" t="s">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-      <c r="F20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" t="s">
-        <v>0</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D22" t="s">
-        <v>0</v>
-      </c>
-      <c r="E22" t="s">
-        <v>1</v>
-      </c>
-      <c r="F22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
-      </c>
-      <c r="D24" t="s">
-        <v>0</v>
-      </c>
-      <c r="E24" t="s">
-        <v>1</v>
-      </c>
-      <c r="F24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" t="s">
-        <v>0</v>
-      </c>
-      <c r="E25" t="s">
-        <v>1</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D26" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D27" t="s">
-        <v>0</v>
-      </c>
-      <c r="E27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
-      </c>
-      <c r="D28" t="s">
-        <v>0</v>
-      </c>
-      <c r="E28" t="s">
-        <v>1</v>
-      </c>
-      <c r="F28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="C29" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
+      <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="F29" t="s">
+      <c r="C33" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>21</v>
+      </c>
+      <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>24</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>34</v>
+      </c>
+      <c r="C44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
-        <v>0</v>
-      </c>
-      <c r="E30" t="s">
-        <v>1</v>
-      </c>
-      <c r="F30" t="s">
-        <v>2</v>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+      <c r="C47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
